--- a/test_請求管理/已完成/test_請求管理_駐車場別請求一覧.xlsx
+++ b/test_請求管理/已完成/test_請求管理_駐車場別請求一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" tabRatio="758" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="798">
   <si>
     <t>SQL</t>
   </si>
@@ -1506,7 +1506,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>法人のご要望</t>
     </r>
@@ -2450,17 +2450,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2487,7 +2485,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2508,39 +2506,39 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9E9E9E"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2559,7 +2557,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2570,72 +2567,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2649,34 +2586,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2687,23 +2609,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2716,78 +2623,37 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2802,19 +2668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2826,7 +2692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,7 +2704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,13 +2716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,164 +2738,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3052,301 +2762,59 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="114">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3355,13 +2823,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3370,34 +2838,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3448,7 +2916,7 @@
     <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3484,128 +2952,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="114">
+  <cellStyles count="66">
+    <cellStyle name="Comma [0]" xfId="15"/>
+    <cellStyle name="Comma [0] 2" xfId="7"/>
+    <cellStyle name="Comma [0] 3" xfId="4"/>
+    <cellStyle name="Comma [0] 3 2" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="8"/>
+    <cellStyle name="Currency [0] 2" xfId="18"/>
+    <cellStyle name="Currency [0] 3" xfId="10"/>
+    <cellStyle name="Currency [0] 3 2" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="19"/>
+    <cellStyle name="ハイパーリンク 2" xfId="21"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="ハイパーリンク 2 3" xfId="22"/>
+    <cellStyle name="ハイパーリンク 2 3 2" xfId="13"/>
+    <cellStyle name="標準 2" xfId="12"/>
+    <cellStyle name="標準 2 2" xfId="9"/>
+    <cellStyle name="標準 2 2 2" xfId="14"/>
+    <cellStyle name="標準 2 2 3" xfId="23"/>
+    <cellStyle name="標準 2 2 3 2" xfId="24"/>
+    <cellStyle name="標準 2 3" xfId="25"/>
+    <cellStyle name="標準 2 4" xfId="26"/>
+    <cellStyle name="標準 2 4 2" xfId="27"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="11"/>
+    <cellStyle name="標準 26" xfId="6"/>
+    <cellStyle name="標準 3" xfId="28"/>
+    <cellStyle name="標準 3 2" xfId="29"/>
+    <cellStyle name="標準 3 3" xfId="30"/>
+    <cellStyle name="標準 3 3 2" xfId="31"/>
+    <cellStyle name="標準 4" xfId="32"/>
+    <cellStyle name="標準 4 2" xfId="33"/>
+    <cellStyle name="標準 4 3" xfId="34"/>
+    <cellStyle name="標準 4 3 2" xfId="35"/>
+    <cellStyle name="標準 5" xfId="37"/>
+    <cellStyle name="標準_Sheet1" xfId="38"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="Currency [0] 3 2" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="货币" xfId="6" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="千位分隔 3 3 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
-    <cellStyle name="差" xfId="11" builtinId="27"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="Comma [0] 3" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="14" builtinId="40"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="18"/>
-    <cellStyle name="標準 26" xfId="19"/>
-    <cellStyle name="Comma [0] 2" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="21" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="22" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="23" builtinId="11"/>
-    <cellStyle name="标题" xfId="24" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="25" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="27" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="29" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="30" builtinId="44"/>
-    <cellStyle name="输出" xfId="31" builtinId="21"/>
-    <cellStyle name="计算" xfId="32" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
-    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
-    <cellStyle name="Currency [0]" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
-    <cellStyle name="链接单元格" xfId="37" builtinId="24"/>
-    <cellStyle name="汇总" xfId="38" builtinId="25"/>
-    <cellStyle name="好" xfId="39" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="40"/>
-    <cellStyle name="适中" xfId="41" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="43" builtinId="29"/>
-    <cellStyle name="Currency [0] 3" xfId="44"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="45" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="46" builtinId="31"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
-    <cellStyle name="ハイパーリンク 2 3 2" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="標準 2 2 2" xfId="60"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
-    <cellStyle name="Comma [0]" xfId="63"/>
-    <cellStyle name="Comma [0] 3 2" xfId="64"/>
-    <cellStyle name="超链接 2" xfId="65"/>
-    <cellStyle name="Currency [0] 2" xfId="66"/>
-    <cellStyle name="Normal_Sheet1" xfId="67"/>
-    <cellStyle name="常规 2 4" xfId="68"/>
-    <cellStyle name="ハイパーリンク 2" xfId="69"/>
-    <cellStyle name="ハイパーリンク 2 3" xfId="70"/>
-    <cellStyle name="標準 2 2 3" xfId="71"/>
-    <cellStyle name="標準 2 2 3 2" xfId="72"/>
-    <cellStyle name="標準 2 3" xfId="73"/>
-    <cellStyle name="標準 2 4" xfId="74"/>
-    <cellStyle name="標準 2 4 2" xfId="75"/>
-    <cellStyle name="標準 3" xfId="76"/>
-    <cellStyle name="標準 3 2" xfId="77"/>
-    <cellStyle name="標準 3 3" xfId="78"/>
-    <cellStyle name="標準 3 3 2" xfId="79"/>
-    <cellStyle name="標準 4" xfId="80"/>
-    <cellStyle name="標準 4 2" xfId="81"/>
-    <cellStyle name="標準 4 3" xfId="82"/>
-    <cellStyle name="標準 4 3 2" xfId="83"/>
-    <cellStyle name="超链接 4" xfId="84"/>
-    <cellStyle name="標準 5" xfId="85"/>
-    <cellStyle name="標準_Sheet1" xfId="86"/>
-    <cellStyle name="常规 2" xfId="87"/>
-    <cellStyle name="常规 2 2" xfId="88"/>
-    <cellStyle name="常规 2 3" xfId="89"/>
-    <cellStyle name="常规 2 5" xfId="90"/>
-    <cellStyle name="常规 3" xfId="91"/>
-    <cellStyle name="常规 3 2" xfId="92"/>
-    <cellStyle name="常规 3 3" xfId="93"/>
-    <cellStyle name="常规 3 3 2" xfId="94"/>
-    <cellStyle name="常规 4" xfId="95"/>
-    <cellStyle name="常规 5" xfId="96"/>
-    <cellStyle name="常规 6 2" xfId="97"/>
-    <cellStyle name="常规 7" xfId="98"/>
-    <cellStyle name="常规 8" xfId="99"/>
-    <cellStyle name="常规 9" xfId="100"/>
-    <cellStyle name="超链接 2 2" xfId="101"/>
-    <cellStyle name="超链接 2 3" xfId="102"/>
-    <cellStyle name="超链接 2 3 2" xfId="103"/>
-    <cellStyle name="超链接 3" xfId="104"/>
-    <cellStyle name="超链接 4 2" xfId="105"/>
-    <cellStyle name="桁区切り 2" xfId="106"/>
-    <cellStyle name="桁区切り 2 2" xfId="107"/>
-    <cellStyle name="桁区切り 2 3" xfId="108"/>
-    <cellStyle name="桁区切り 2 3 2" xfId="109"/>
-    <cellStyle name="千位分隔 2" xfId="110"/>
-    <cellStyle name="千位分隔 3" xfId="111"/>
-    <cellStyle name="千位分隔 3 2" xfId="112"/>
-    <cellStyle name="千位分隔 3 3" xfId="113"/>
+    <cellStyle name="常规 2" xfId="39"/>
+    <cellStyle name="常规 2 2" xfId="40"/>
+    <cellStyle name="常规 2 3" xfId="41"/>
+    <cellStyle name="常规 2 4" xfId="20"/>
+    <cellStyle name="常规 2 5" xfId="42"/>
+    <cellStyle name="常规 3" xfId="43"/>
+    <cellStyle name="常规 3 2" xfId="44"/>
+    <cellStyle name="常规 3 3" xfId="45"/>
+    <cellStyle name="常规 3 3 2" xfId="46"/>
+    <cellStyle name="常规 4" xfId="47"/>
+    <cellStyle name="常规 5" xfId="48"/>
+    <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="常规 6 2" xfId="49"/>
+    <cellStyle name="常规 7" xfId="50"/>
+    <cellStyle name="常规 8" xfId="51"/>
+    <cellStyle name="常规 9" xfId="52"/>
+    <cellStyle name="超链接 2" xfId="17"/>
+    <cellStyle name="超链接 2 2" xfId="53"/>
+    <cellStyle name="超链接 2 3" xfId="54"/>
+    <cellStyle name="超链接 2 3 2" xfId="55"/>
+    <cellStyle name="超链接 3" xfId="56"/>
+    <cellStyle name="超链接 4" xfId="36"/>
+    <cellStyle name="超链接 4 2" xfId="57"/>
+    <cellStyle name="桁区切り 2" xfId="58"/>
+    <cellStyle name="桁区切り 2 2" xfId="59"/>
+    <cellStyle name="桁区切り 2 3" xfId="60"/>
+    <cellStyle name="桁区切り 2 3 2" xfId="61"/>
+    <cellStyle name="千位分隔 2" xfId="62"/>
+    <cellStyle name="千位分隔 3" xfId="63"/>
+    <cellStyle name="千位分隔 3 2" xfId="64"/>
+    <cellStyle name="千位分隔 3 3" xfId="65"/>
+    <cellStyle name="千位分隔 3 3 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3621,8 +3069,85 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF1F4BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -3643,13 +3168,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0074C1C4"/>
+      <color rgb="FF74C1C4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3939,16 +3464,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE192"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3964,7 +3489,7 @@
     <col min="135" max="135" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3972,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -3988,11 +3513,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="25"/>
       <c r="B5" s="11"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +3541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
@@ -4024,11 +3549,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="25"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:2">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +3561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +3577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:2">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +3585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="25" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +3593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -4076,10 +3601,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +3612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -4095,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" ht="14.25">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -4103,10 +3628,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
@@ -4114,7 +3639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +3647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
@@ -4130,7 +3655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +3663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="10" t="s">
         <v>0</v>
       </c>
@@ -4146,7 +3671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" ht="14.25">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -4154,7 +3679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +3687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
@@ -4170,7 +3695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -4178,10 +3703,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="2:2">
+    <row r="33" spans="1:2">
       <c r="B33" s="11"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" ht="14.25">
       <c r="A34" s="10" t="s">
         <v>0</v>
       </c>
@@ -4189,7 +3714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" ht="14.25">
       <c r="A35" s="10" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +3722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" s="10" t="s">
         <v>0</v>
       </c>
@@ -4205,14 +3730,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="2:2">
+    <row r="37" spans="1:2">
       <c r="B37" s="11"/>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" ht="14.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" ht="14.25">
       <c r="A39" s="10" t="s">
         <v>0</v>
       </c>
@@ -4220,7 +3745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
@@ -4228,11 +3753,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" ht="14.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" ht="14.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +3765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" ht="14.25">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -4248,7 +3773,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -4256,7 +3781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
@@ -4264,7 +3789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" ht="14.25">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +3797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" ht="14.25">
       <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +3805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" ht="14.25">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +3813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:2" ht="14.25">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +3821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:2" ht="14.25">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +3829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:2" ht="14.25">
       <c r="A51" s="10" t="s">
         <v>0</v>
       </c>
@@ -4312,7 +3837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:2" ht="14.25">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +3845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:2" ht="14.25">
       <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
@@ -4328,7 +3853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2" ht="14.25">
       <c r="A54" s="10" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +3861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:2" ht="14.25">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -4344,7 +3869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:2" ht="14.25">
       <c r="A56" s="10" t="s">
         <v>0</v>
       </c>
@@ -4352,8 +3877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1" ht="14.25" spans="1:2">
+    <row r="58" spans="1:2" ht="14.25">
       <c r="A58" s="10" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +3885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:2">
+    <row r="59" spans="1:2" ht="14.25">
       <c r="A59" s="10" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +3893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:2">
+    <row r="60" spans="1:2" ht="14.25">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +3901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:2">
+    <row r="61" spans="1:2" ht="14.25">
       <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
@@ -4385,11 +3909,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2" ht="14.25">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +3921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:2">
+    <row r="64" spans="1:2" ht="14.25">
       <c r="A64" s="10" t="s">
         <v>0</v>
       </c>
@@ -4405,14 +3929,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="1" ht="14.25" spans="1:2">
+    <row r="65" spans="1:19" ht="14.25">
       <c r="A65" s="26"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="10" t="s">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:19" ht="14.25">
+      <c r="A66" s="10"/>
       <c r="B66" s="11" t="s">
         <v>51</v>
       </c>
@@ -4423,7 +3945,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" ht="14.25">
       <c r="A67" s="10" t="s">
         <v>0</v>
       </c>
@@ -4437,7 +3959,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:8">
+    <row r="68" spans="1:19" ht="14.25">
       <c r="A68" s="10" t="s">
         <v>0</v>
       </c>
@@ -4451,7 +3973,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:8">
+    <row r="69" spans="1:19" ht="14.25">
       <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
@@ -4465,7 +3987,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:8">
+    <row r="70" spans="1:19" ht="14.25">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
@@ -4479,7 +4001,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:2">
+    <row r="71" spans="1:19" ht="14.25">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -4487,11 +4009,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" customFormat="1" ht="14.25" spans="1:2">
+    <row r="72" spans="1:19" ht="14.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" customFormat="1" ht="14.25" spans="1:2">
+    <row r="73" spans="1:19" ht="14.25">
       <c r="A73" s="10" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" customFormat="1" ht="14.25" spans="1:2">
+    <row r="74" spans="1:19" ht="14.25">
       <c r="A74" s="10" t="s">
         <v>58</v>
       </c>
@@ -4507,12 +4029,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" customFormat="1" spans="2:2">
+    <row r="75" spans="1:19">
       <c r="B75" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19">
       <c r="B76" s="13" t="s">
         <v>61</v>
       </c>
@@ -4568,7 +4090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19">
       <c r="B77" s="15">
         <v>1</v>
       </c>
@@ -4624,7 +4146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19">
       <c r="B78" s="15">
         <v>2</v>
       </c>
@@ -4680,7 +4202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19">
       <c r="B79" s="15">
         <v>3</v>
       </c>
@@ -4736,7 +4258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19">
       <c r="B80" s="15">
         <v>4</v>
       </c>
@@ -4792,7 +4314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="2:19">
+    <row r="81" spans="1:75">
       <c r="B81" s="15">
         <v>5</v>
       </c>
@@ -4848,7 +4370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="1" spans="2:19">
+    <row r="82" spans="1:75">
       <c r="B82" s="15">
         <v>6</v>
       </c>
@@ -4904,7 +4426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="2:19">
+    <row r="83" spans="1:75">
       <c r="B83" s="15">
         <v>7</v>
       </c>
@@ -4960,8 +4482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" customFormat="1"/>
-    <row r="85" ht="14.25" spans="1:75">
+    <row r="85" spans="1:75" ht="14.25">
       <c r="A85" s="10" t="s">
         <v>58</v>
       </c>
@@ -5153,7 +4674,7 @@
       <c r="BV86" s="11"/>
       <c r="BW86" s="11"/>
     </row>
-    <row r="87" spans="1:74">
+    <row r="87" spans="1:75">
       <c r="A87" s="28"/>
       <c r="B87" s="14" t="s">
         <v>62</v>
@@ -5375,7 +4896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:74">
+    <row r="88" spans="1:75">
       <c r="A88" s="11"/>
       <c r="B88" s="15" t="s">
         <v>79</v>
@@ -5595,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:74">
+    <row r="89" spans="1:75">
       <c r="A89" s="11"/>
       <c r="B89" s="15" t="s">
         <v>79</v>
@@ -5815,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:74">
+    <row r="90" spans="1:75">
       <c r="A90" s="11"/>
       <c r="B90" s="15" t="s">
         <v>79</v>
@@ -6035,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:74">
+    <row r="91" spans="1:75">
       <c r="A91" s="11"/>
       <c r="B91" s="15" t="s">
         <v>79</v>
@@ -6255,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:74">
+    <row r="92" spans="1:75">
       <c r="A92" s="11"/>
       <c r="B92" s="15" t="s">
         <v>92</v>
@@ -6475,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:74">
+    <row r="93" spans="1:75">
       <c r="A93" s="11"/>
       <c r="B93" s="15" t="s">
         <v>92</v>
@@ -6695,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:7">
+    <row r="95" spans="1:75" ht="14.25">
       <c r="A95" s="10" t="s">
         <v>58</v>
       </c>
@@ -6708,7 +6229,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:75">
       <c r="A96" s="11"/>
       <c r="B96" s="12" t="s">
         <v>210</v>
@@ -6725,7 +6246,7 @@
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:40">
       <c r="A97" s="11"/>
       <c r="B97" s="14" t="s">
         <v>62</v>
@@ -6751,7 +6272,7 @@
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:40">
       <c r="A98" s="11"/>
       <c r="B98" s="15" t="s">
         <v>79</v>
@@ -6775,7 +6296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="1:40">
       <c r="B99" s="15" t="s">
         <v>79</v>
       </c>
@@ -6798,7 +6319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="1:40">
       <c r="B100" s="15" t="s">
         <v>79</v>
       </c>
@@ -6821,7 +6342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:40">
       <c r="A101" s="19"/>
       <c r="B101" s="15" t="s">
         <v>79</v>
@@ -6845,7 +6366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="1:40">
       <c r="B102" s="15" t="s">
         <v>92</v>
       </c>
@@ -6870,7 +6391,7 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:40">
       <c r="A103" s="11"/>
       <c r="B103" s="15" t="s">
         <v>79</v>
@@ -6900,7 +6421,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:40">
       <c r="A104" s="11"/>
       <c r="B104" s="15" t="s">
         <v>79</v>
@@ -6927,7 +6448,7 @@
       <c r="J104" s="19"/>
       <c r="K104" s="19"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:40">
       <c r="A105" s="11"/>
       <c r="B105" s="15" t="s">
         <v>79</v>
@@ -6954,7 +6475,7 @@
       <c r="J105" s="19"/>
       <c r="K105" s="19"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:40">
       <c r="A106" s="11"/>
       <c r="B106" s="15" t="s">
         <v>79</v>
@@ -6981,7 +6502,7 @@
       <c r="J106" s="19"/>
       <c r="K106" s="19"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:40">
       <c r="A107" s="11"/>
       <c r="B107" s="15" t="s">
         <v>92</v>
@@ -7008,8 +6529,7 @@
       <c r="J107" s="19"/>
       <c r="K107" s="19"/>
     </row>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1" ht="14.25" spans="1:40">
+    <row r="110" spans="1:40" ht="14.25">
       <c r="A110" s="10" t="s">
         <v>58</v>
       </c>
@@ -7055,7 +6575,7 @@
       <c r="AM110" s="11"/>
       <c r="AN110" s="11"/>
     </row>
-    <row r="111" customFormat="1" spans="1:33">
+    <row r="111" spans="1:40">
       <c r="A111" s="19"/>
       <c r="B111" s="12" t="s">
         <v>230</v>
@@ -7092,7 +6612,7 @@
       <c r="AF111" s="19"/>
       <c r="AG111" s="19"/>
     </row>
-    <row r="112" customFormat="1" spans="1:33">
+    <row r="112" spans="1:40">
       <c r="A112" s="19"/>
       <c r="B112" s="13" t="s">
         <v>61</v>
@@ -7191,7 +6711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="113" customFormat="1" spans="1:33">
+    <row r="113" spans="1:33">
       <c r="A113" s="19"/>
       <c r="B113" s="15" t="s">
         <v>177</v>
@@ -7290,7 +6810,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" customFormat="1" spans="1:33">
+    <row r="114" spans="1:33">
       <c r="A114" s="19"/>
       <c r="B114" s="15" t="s">
         <v>183</v>
@@ -7389,7 +6909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" customFormat="1" spans="1:33">
+    <row r="115" spans="1:33">
       <c r="A115" s="19"/>
       <c r="B115" s="15" t="s">
         <v>190</v>
@@ -7488,7 +7008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" customFormat="1" spans="1:33">
+    <row r="116" spans="1:33">
       <c r="A116" s="19"/>
       <c r="B116" s="15" t="s">
         <v>197</v>
@@ -7587,7 +7107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" customFormat="1" spans="1:33">
+    <row r="117" spans="1:33">
       <c r="A117" s="19"/>
       <c r="B117" s="15" t="s">
         <v>203</v>
@@ -8082,8 +7602,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" customFormat="1"/>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:33" ht="14.25">
       <c r="A123" s="10" t="s">
         <v>58</v>
       </c>
@@ -8091,12 +7610,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:33">
       <c r="B124" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="2:13">
+    <row r="125" spans="1:33">
       <c r="B125" s="13" t="s">
         <v>61</v>
       </c>
@@ -8134,7 +7653,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="2:13">
+    <row r="126" spans="1:33">
       <c r="B126" s="15" t="s">
         <v>177</v>
       </c>
@@ -8172,8 +7691,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" customFormat="1"/>
-    <row r="128" ht="14.25" spans="1:8">
+    <row r="128" spans="1:33" ht="14.25">
       <c r="A128" s="10" t="s">
         <v>58</v>
       </c>
@@ -8187,7 +7705,7 @@
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:142">
       <c r="A129" s="19"/>
       <c r="B129" s="12" t="s">
         <v>328</v>
@@ -10325,7 +9843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" ht="14.25" spans="1:2">
+    <row r="136" spans="1:142" ht="14.25">
       <c r="A136" s="10" t="s">
         <v>58</v>
       </c>
@@ -10333,13 +9851,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:142">
       <c r="A137" s="19"/>
       <c r="B137" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="138" spans="2:33">
+    <row r="138" spans="1:142">
       <c r="B138" s="13" t="s">
         <v>61</v>
       </c>
@@ -10437,7 +9955,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="139" spans="2:33">
+    <row r="139" spans="1:142">
       <c r="B139" s="15">
         <v>1</v>
       </c>
@@ -10535,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:33">
+    <row r="140" spans="1:142">
       <c r="B140" s="15" t="s">
         <v>183</v>
       </c>
@@ -10633,7 +10151,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="2:33">
+    <row r="141" spans="1:142">
       <c r="B141" s="15" t="s">
         <v>190</v>
       </c>
@@ -10731,7 +10249,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="2:33">
+    <row r="142" spans="1:142">
       <c r="B142" s="15" t="s">
         <v>197</v>
       </c>
@@ -10829,8 +10347,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" customFormat="1"/>
-    <row r="144" s="19" customFormat="1" spans="2:35">
+    <row r="144" spans="1:142" s="19" customFormat="1">
       <c r="B144" s="29"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30"/>
@@ -10866,7 +10383,7 @@
       <c r="AH144" s="30"/>
       <c r="AI144" s="30"/>
     </row>
-    <row r="145" s="19" customFormat="1" ht="14.25" spans="1:35">
+    <row r="145" spans="1:239" s="19" customFormat="1" ht="14.25">
       <c r="A145" s="31" t="s">
         <v>58</v>
       </c>
@@ -10907,7 +10424,7 @@
       <c r="AH145" s="30"/>
       <c r="AI145" s="30"/>
     </row>
-    <row r="146" s="19" customFormat="1" spans="1:35">
+    <row r="146" spans="1:239" s="19" customFormat="1">
       <c r="A146" s="32"/>
       <c r="B146" s="33" t="s">
         <v>549</v>
@@ -10946,7 +10463,7 @@
       <c r="AH146" s="30"/>
       <c r="AI146" s="30"/>
     </row>
-    <row r="147" s="19" customFormat="1" spans="1:239">
+    <row r="147" spans="1:239" s="19" customFormat="1">
       <c r="A147" s="30"/>
       <c r="B147" s="13" t="s">
         <v>98</v>
@@ -11663,7 +11180,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="148" s="19" customFormat="1" spans="1:239">
+    <row r="148" spans="1:239" s="19" customFormat="1">
       <c r="A148" s="30"/>
       <c r="B148" s="17">
         <v>78</v>
@@ -12380,7 +11897,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="149" s="19" customFormat="1" spans="1:239">
+    <row r="149" spans="1:239" s="19" customFormat="1">
       <c r="A149" s="30"/>
       <c r="B149" s="17">
         <v>79</v>
@@ -13097,7 +12614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" s="19" customFormat="1" spans="1:239">
+    <row r="150" spans="1:239" s="19" customFormat="1">
       <c r="A150" s="30"/>
       <c r="B150" s="17">
         <v>80</v>
@@ -13814,7 +13331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" s="19" customFormat="1" spans="1:239">
+    <row r="151" spans="1:239" s="19" customFormat="1">
       <c r="A151" s="30"/>
       <c r="B151" s="17">
         <v>92</v>
@@ -14531,7 +14048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" s="19" customFormat="1" spans="2:35">
+    <row r="152" spans="1:239" s="19" customFormat="1">
       <c r="B152" s="29"/>
       <c r="C152" s="30"/>
       <c r="D152" s="30"/>
@@ -14567,7 +14084,7 @@
       <c r="AH152" s="30"/>
       <c r="AI152" s="30"/>
     </row>
-    <row r="154" ht="14.25" spans="1:2">
+    <row r="154" spans="1:239" ht="14.25">
       <c r="A154" s="10" t="s">
         <v>58</v>
       </c>
@@ -14575,12 +14092,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="1:239">
       <c r="B155" s="12" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="156" spans="2:28">
+    <row r="156" spans="1:239">
       <c r="B156" s="13" t="s">
         <v>61</v>
       </c>
@@ -14663,7 +14180,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="2:28">
+    <row r="157" spans="1:239">
       <c r="B157" s="15">
         <v>1</v>
       </c>
@@ -14746,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:28">
+    <row r="158" spans="1:239">
       <c r="B158" s="15">
         <v>2</v>
       </c>
@@ -14829,7 +14346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" customFormat="1" spans="2:28">
+    <row r="159" spans="1:239">
       <c r="B159" s="15" t="s">
         <v>190</v>
       </c>
@@ -14912,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="1" spans="2:28">
+    <row r="160" spans="1:239">
       <c r="B160" s="15" t="s">
         <v>197</v>
       </c>
@@ -14995,7 +14512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" ht="14.25" spans="1:2">
+    <row r="164" spans="1:13" ht="14.25">
       <c r="A164" s="10" t="s">
         <v>58</v>
       </c>
@@ -15003,12 +14520,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="1:13">
       <c r="B165" s="12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="166" spans="2:13">
+    <row r="166" spans="1:13">
       <c r="B166" s="13" t="s">
         <v>61</v>
       </c>
@@ -15046,15 +14563,15 @@
         <v>698</v>
       </c>
     </row>
-    <row r="167" spans="2:13">
+    <row r="167" spans="1:13" ht="14.25">
       <c r="B167" s="15">
         <v>565</v>
       </c>
       <c r="C167" s="34">
-        <v>43187.5450462963</v>
+        <v>43187.545046296298</v>
       </c>
       <c r="D167" s="34">
-        <v>43189.1342476852</v>
+        <v>43189.134247685201</v>
       </c>
       <c r="E167" s="15">
         <v>0</v>
@@ -15084,15 +14601,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="2:13">
+    <row r="168" spans="1:13" ht="14.25">
       <c r="B168" s="15">
         <v>566</v>
       </c>
       <c r="C168" s="34">
-        <v>43187.5450462963</v>
+        <v>43187.545046296298</v>
       </c>
       <c r="D168" s="34">
-        <v>43189.1342476852</v>
+        <v>43189.134247685201</v>
       </c>
       <c r="E168" s="15">
         <v>0</v>
@@ -15122,15 +14639,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" spans="2:13">
+    <row r="169" spans="1:13" ht="14.25">
       <c r="B169" s="15">
         <v>567</v>
       </c>
       <c r="C169" s="34">
-        <v>43187.5450462963</v>
+        <v>43187.545046296298</v>
       </c>
       <c r="D169" s="34">
-        <v>43189.1342476852</v>
+        <v>43189.134247685201</v>
       </c>
       <c r="E169" s="15">
         <v>0</v>
@@ -15160,15 +14677,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="2:13">
+    <row r="170" spans="1:13" ht="14.25">
       <c r="B170" s="15">
         <v>580</v>
       </c>
       <c r="C170" s="34">
-        <v>43189.407650463</v>
+        <v>43189.407650462999</v>
       </c>
       <c r="D170" s="34">
-        <v>43189.407650463</v>
+        <v>43189.407650462999</v>
       </c>
       <c r="E170" s="15">
         <v>0</v>
@@ -15198,7 +14715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="175" ht="14.25" spans="1:2">
+    <row r="175" spans="1:13" ht="14.25">
       <c r="A175" s="10" t="s">
         <v>58</v>
       </c>
@@ -15206,12 +14723,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="1:13">
       <c r="B176" s="12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="177" spans="2:18">
+    <row r="177" spans="1:18">
       <c r="B177" s="13" t="s">
         <v>61</v>
       </c>
@@ -15264,15 +14781,15 @@
         <v>731</v>
       </c>
     </row>
-    <row r="178" spans="2:18">
+    <row r="178" spans="1:18" ht="14.25">
       <c r="B178" s="15">
         <v>20</v>
       </c>
       <c r="C178" s="34">
-        <v>43255.3870601852</v>
+        <v>43255.387060185203</v>
       </c>
       <c r="D178" s="34">
-        <v>43255.3870601852</v>
+        <v>43255.387060185203</v>
       </c>
       <c r="E178" s="15">
         <v>0</v>
@@ -15317,15 +14834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:18">
+    <row r="179" spans="1:18" ht="14.25">
       <c r="B179" s="15">
         <v>21</v>
       </c>
       <c r="C179" s="34">
-        <v>43255.3870601852</v>
+        <v>43255.387060185203</v>
       </c>
       <c r="D179" s="34">
-        <v>43255.3870601852</v>
+        <v>43255.387060185203</v>
       </c>
       <c r="E179" s="15">
         <v>0</v>
@@ -15370,15 +14887,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:18">
+    <row r="180" spans="1:18" ht="14.25">
       <c r="B180" s="15">
         <v>132</v>
       </c>
       <c r="C180" s="34">
-        <v>43257.2541550926</v>
+        <v>43257.254155092603</v>
       </c>
       <c r="D180" s="34">
-        <v>43257.2541550926</v>
+        <v>43257.254155092603</v>
       </c>
       <c r="E180" s="15">
         <v>0</v>
@@ -15423,15 +14940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:18">
+    <row r="181" spans="1:18" ht="14.25">
       <c r="B181" s="15">
         <v>133</v>
       </c>
       <c r="C181" s="34">
-        <v>43257.2541550926</v>
+        <v>43257.254155092603</v>
       </c>
       <c r="D181" s="34">
-        <v>43257.2541550926</v>
+        <v>43257.254155092603</v>
       </c>
       <c r="E181" s="15">
         <v>0</v>
@@ -15476,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="14.25" spans="1:2">
+    <row r="186" spans="1:18" ht="14.25">
       <c r="A186" s="10" t="s">
         <v>58</v>
       </c>
@@ -15484,12 +15001,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="1:18">
       <c r="B187" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="188" spans="2:13">
+    <row r="188" spans="1:18">
       <c r="B188" s="13" t="s">
         <v>61</v>
       </c>
@@ -15527,15 +15044,15 @@
         <v>747</v>
       </c>
     </row>
-    <row r="189" spans="2:13">
+    <row r="189" spans="1:18" ht="14.25">
       <c r="B189" s="15">
         <v>1</v>
       </c>
       <c r="C189" s="34">
-        <v>43267.2621180556</v>
+        <v>43267.262118055602</v>
       </c>
       <c r="D189" s="34">
-        <v>43267.2621180556</v>
+        <v>43267.262118055602</v>
       </c>
       <c r="E189" s="15">
         <v>0</v>
@@ -15565,15 +15082,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="2:13">
+    <row r="190" spans="1:18" ht="14.25">
       <c r="B190" s="15">
         <v>2</v>
       </c>
       <c r="C190" s="34">
-        <v>43267.2621412037</v>
+        <v>43267.262141203697</v>
       </c>
       <c r="D190" s="34">
-        <v>43267.2621412037</v>
+        <v>43267.262141203697</v>
       </c>
       <c r="E190" s="15">
         <v>0</v>
@@ -15603,15 +15120,15 @@
         <v>749</v>
       </c>
     </row>
-    <row r="191" spans="2:13">
+    <row r="191" spans="1:18" ht="14.25">
       <c r="B191" s="15">
         <v>3</v>
       </c>
       <c r="C191" s="34">
-        <v>43267.2621412037</v>
+        <v>43267.262141203697</v>
       </c>
       <c r="D191" s="34">
-        <v>43267.2621412037</v>
+        <v>43267.262141203697</v>
       </c>
       <c r="E191" s="15">
         <v>0</v>
@@ -15641,15 +15158,15 @@
         <v>751</v>
       </c>
     </row>
-    <row r="192" spans="2:13">
+    <row r="192" spans="1:18" ht="14.25">
       <c r="B192" s="15">
         <v>4</v>
       </c>
       <c r="C192" s="34">
-        <v>43267.2621527778</v>
+        <v>43267.262152777803</v>
       </c>
       <c r="D192" s="34">
-        <v>43267.2621527778</v>
+        <v>43267.262152777803</v>
       </c>
       <c r="E192" s="15">
         <v>0</v>
@@ -15680,97 +15197,96 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O151">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW151">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX151">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M170">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148:B150">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148:B151">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M167:M169">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M167:M170">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A144:$XFD146 $A152:$XFD152 C147:XFD147 A147">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+  <conditionalFormatting sqref="A144:XFD146 A152:XFD152 C147:XFD147 A147">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A144:$XFD147 $A152:$XFD152 CZ148:XFD151 A148:A151 C148:CX151">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+  <conditionalFormatting sqref="A144:XFD147 A152:XFD152 CZ148:XFD151 A148:A151 C148:CX151">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148:A150 C148:CX150 CZ148:XFD150">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151 C151:N151 CZ151:XFD151 BY151:CX151 P151:BV151">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O134" r:id="rId1" display="lyy@shequchina.cn"/>
+    <hyperlink ref="O134" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K45" sqref="H42 K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:8" ht="14.25">
       <c r="A1" s="18" t="s">
         <v>753</v>
       </c>
@@ -15779,13 +15295,13 @@
       </c>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:8">
       <c r="C2" s="20"/>
     </row>
-    <row r="3" customFormat="1" spans="3:3">
+    <row r="3" spans="1:8">
       <c r="C3" s="20"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="18" t="s">
         <v>755</v>
       </c>
@@ -15794,7 +15310,7 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="18" t="s">
         <v>755</v>
       </c>
@@ -15803,7 +15319,7 @@
       </c>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="18" t="s">
         <v>755</v>
       </c>
@@ -15812,7 +15328,7 @@
       </c>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="18" t="s">
         <v>755</v>
       </c>
@@ -15823,7 +15339,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="18" t="s">
         <v>761</v>
       </c>
@@ -15831,7 +15347,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="18" t="s">
         <v>763</v>
       </c>
@@ -15845,7 +15361,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    <row r="11" spans="1:8" ht="14.25">
       <c r="A11" s="18" t="s">
         <v>755</v>
       </c>
@@ -15855,7 +15371,7 @@
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="18" t="s">
         <v>761</v>
       </c>
@@ -15863,7 +15379,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:8" ht="14.25">
       <c r="A14" s="18" t="s">
         <v>763</v>
       </c>
@@ -15877,7 +15393,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    <row r="15" spans="1:8" ht="14.25">
       <c r="A15" s="18" t="s">
         <v>755</v>
       </c>
@@ -15887,7 +15403,7 @@
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="18" t="s">
         <v>761</v>
       </c>
@@ -15895,7 +15411,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="18" t="s">
         <v>763</v>
       </c>
@@ -15909,7 +15425,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="18" t="s">
         <v>755</v>
       </c>
@@ -15919,7 +15435,7 @@
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:4" ht="14.25">
       <c r="A20" s="18" t="s">
         <v>761</v>
       </c>
@@ -15927,7 +15443,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="18" t="s">
         <v>753</v>
       </c>
@@ -15935,11 +15451,11 @@
         <v>772</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" s="18" t="s">
         <v>755</v>
       </c>
@@ -15947,7 +15463,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="18" t="s">
         <v>761</v>
       </c>
@@ -15955,7 +15471,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:2">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="18" t="s">
         <v>753</v>
       </c>
@@ -15963,11 +15479,11 @@
         <v>772</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:4">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="18" t="s">
         <v>755</v>
       </c>
@@ -15975,7 +15491,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="18" t="s">
         <v>761</v>
       </c>
@@ -15983,12 +15499,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:1">
+    <row r="34" spans="1:2" ht="14.25">
       <c r="A34" s="18" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" ht="14.25">
       <c r="A35" s="18" t="s">
         <v>755</v>
       </c>
@@ -15996,7 +15512,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" s="18" t="s">
         <v>761</v>
       </c>
@@ -16004,7 +15520,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" ht="14.25">
       <c r="A37" s="18" t="s">
         <v>755</v>
       </c>
@@ -16012,7 +15528,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" ht="14.25">
       <c r="A39" s="18" t="s">
         <v>755</v>
       </c>
@@ -16020,7 +15536,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" s="18" t="s">
         <v>761</v>
       </c>
@@ -16029,18 +15545,17 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" display="駐車場別請求一覧" tooltip="http://127.0.0.1:8000/billing/parking-lot-request/"/>
+    <hyperlink ref="H7" r:id="rId1" tooltip="http://127.0.0.1:8000/billing/parking-lot-request/"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16052,7 +15567,7 @@
     <col min="3" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="10" t="s">
         <v>58</v>
       </c>
@@ -16060,12 +15575,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:18">
       <c r="B4" s="12" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="1:18">
       <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
@@ -16103,7 +15618,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="1:18">
       <c r="B6" s="15">
         <v>565</v>
       </c>
@@ -16141,7 +15656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="1:18">
       <c r="B7" s="15">
         <v>566</v>
       </c>
@@ -16179,7 +15694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="1:18">
       <c r="B8" s="15">
         <v>567</v>
       </c>
@@ -16217,7 +15732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="1:18">
       <c r="B9" s="15">
         <v>580</v>
       </c>
@@ -16255,7 +15770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:18" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>58</v>
       </c>
@@ -16263,12 +15778,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:18">
       <c r="B15" s="12" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="1:18">
       <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
@@ -16321,7 +15836,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="1:18">
       <c r="B17" s="15">
         <v>20</v>
       </c>
@@ -16374,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="1:18">
       <c r="B18" s="15">
         <v>21</v>
       </c>
@@ -16427,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="1:18">
       <c r="B19" s="15">
         <v>132</v>
       </c>
@@ -16480,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="1:18">
       <c r="B20" s="15">
         <v>133</v>
       </c>
@@ -16533,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
@@ -16541,12 +16056,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:18">
       <c r="B26" s="12" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="1:18">
       <c r="B27" s="13" t="s">
         <v>61</v>
       </c>
@@ -16584,7 +16099,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="1:18">
       <c r="B28" s="15">
         <v>1</v>
       </c>
@@ -16622,7 +16137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="1:18">
       <c r="B29" s="15">
         <v>2</v>
       </c>
@@ -16660,7 +16175,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="1:18">
       <c r="B30" s="15">
         <v>3</v>
       </c>
@@ -16698,7 +16213,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="1:18">
       <c r="B31" s="15">
         <v>4</v>
       </c>
@@ -16737,33 +16252,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -16778,10 +16292,10 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:10">
+    <row r="2" spans="2:77">
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="24:29">
+    <row r="3" spans="2:77">
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -16828,7 +16342,7 @@
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="2:6">
+    <row r="5" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B5" s="9" t="s">
         <v>789</v>
       </c>
@@ -16845,148 +16359,148 @@
         <v>793</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12" spans="2:2">
+    <row r="6" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B6" s="9" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" spans="2:2">
+    <row r="7" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B7" s="9" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" spans="2:2">
+    <row r="8" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B8" s="9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12" spans="2:2">
+    <row r="9" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B9" s="9" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:2">
+    <row r="10" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B10" s="9"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:2">
+    <row r="11" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:2">
+    <row r="12" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:2">
+    <row r="13" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:2">
+    <row r="14" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="2:2">
+    <row r="15" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="2:2">
+    <row r="16" spans="2:77" s="1" customFormat="1" ht="12">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:2">
+    <row r="17" spans="2:17" s="1" customFormat="1" ht="12">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12"/>
-    <row r="19" s="1" customFormat="1" ht="12"/>
-    <row r="20" s="1" customFormat="1" ht="12"/>
-    <row r="21" s="1" customFormat="1" ht="12"/>
-    <row r="22" s="1" customFormat="1" ht="12"/>
-    <row r="23" s="1" customFormat="1" ht="12"/>
-    <row r="24" s="1" customFormat="1" ht="12"/>
-    <row r="25" s="1" customFormat="1" ht="12"/>
-    <row r="26" s="1" customFormat="1" ht="12"/>
-    <row r="27" s="1" customFormat="1" ht="12"/>
-    <row r="28" s="1" customFormat="1" ht="12"/>
-    <row r="29" s="1" customFormat="1" spans="10:10">
+    <row r="18" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="19" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="20" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="21" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="22" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="23" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="24" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="25" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="26" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="27" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="28" spans="2:17" s="1" customFormat="1" ht="12"/>
+    <row r="29" spans="2:17" s="1" customFormat="1">
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="5:12">
+    <row r="30" spans="2:17">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="5:17">
+    <row r="31" spans="2:17">
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="7:9">
+    <row r="32" spans="2:17">
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="7:9">
+    <row r="33" spans="2:10">
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="7:9">
+    <row r="34" spans="2:10">
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:10">
       <c r="B35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:10">
       <c r="B36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="2:10">
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="2:10">
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="2:10">
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="9:10">
+    <row r="40" spans="2:10">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="9:10">
+    <row r="41" spans="2:10">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="9:10">
+    <row r="42" spans="2:10">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="9:10">
+    <row r="43" spans="2:10">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="9:10">
+    <row r="44" spans="2:10">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="9:10">
+    <row r="45" spans="2:10">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="2:10">
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="9:10">
+    <row r="47" spans="2:10">
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="9:10">
+    <row r="48" spans="2:10">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="9:10">
+    <row r="49" spans="9:11">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="9:10">
+    <row r="50" spans="9:11">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
@@ -16995,16 +16509,16 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="9:10">
+    <row r="52" spans="9:11">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="54" spans="10:10">
+    <row r="54" spans="9:11">
       <c r="J54" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>